--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_basic_fm_linear_rcm.xlsx
@@ -49,6 +49,27 @@
     <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="exponential_sr_0.2" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="gaussian_sr_0.2" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="inverse_sr_0.2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="powerlaw_sr_0.2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="rational_quadratic_sr_0.2" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="generalized_gaussian_sr_0.2" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="sigmoid_sr_0.2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="exponential_sr_0.15" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="gaussian_sr_0.15" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="inverse_sr_0.15" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="powerlaw_sr_0.15" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13410,6 +13431,2456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.01474926253687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3750338096055202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8501474926253687</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500561607459274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>78.14574520540836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5225658520435293</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7814574520540836</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7749187064482557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.18808986236905</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.399453762670358</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8318808986236906</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8307960234269165</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.48672566371681</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3532896511838771</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8548672566371682</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8543289404730674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4806571875718267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8421828908554572</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8377471519922457</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.31840240832534</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4174001622557019</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8731840240832532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8676554841695797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.91128815993218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6585868807509542</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7491128815993218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7415254155054314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4105807851417921</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8359659862049089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.13569321533923</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3795786698310015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8613569321533923</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8589568350561272</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.45722713864306</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5475447391489676</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8545722713864308</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8464172204540725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5518191200186265</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8382321844580588</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.02654867256636</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5093463609615962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7902654867256638</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7859918824560561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.31563421828909</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4282434809099263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.873156342182891</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8694035087639236</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.43362831858407</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6273744693627427</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8743362831858408</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8609207668791765</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1916675699622525</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9290373927447577</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.32606395095689</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4568761667612449</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8432606395095691</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8387969106519004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>82.22155901002604</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4631389042673011</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8222155901002604</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.821321645178862</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.54079187536225</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5818461238406598</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7554079187536225</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7527493030035832</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.13274336283186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3691909347699645</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8513274336283185</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8506386679798558</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.41887040545333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2531544955015609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9141887040545333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9134698749508117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.18289085545723</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5098688386691113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8218289085545722</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8186746788781308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.49557522123894</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3381498806527816</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8849557522123893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8832112715708338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.02217147207156</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.177812928784018</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6302217147207155</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6053934832930796</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.10619469026548</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3849045705399476</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8610619469026549</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8595803887527236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.91930726044343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4546081916739543</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8191930726044344</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.819588727708503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.48377581120944</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4440086742591423</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8448377581120944</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8451760999685016</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.06489675516224</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.572601624360929</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8206489675516224</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8240090364019814</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.8259587020649</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7374212791211903</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8082595870206489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.78704274485875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.75516224188792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1354693062508886</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.967551622418879</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9673768747350273</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.116650415075128</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9581980791519882</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.46134482132199</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2381408893600261</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9146134482132199</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9128742090124129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.49813002995988</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5184644704751068</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8449813002995989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8412870056963364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.79073348385367</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5476501294023668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7879073348385367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7824232096563322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.78188392633155</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5480273722360531</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7578188392633154</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7535535467606606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.80825958702066</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3823380439697455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8480825958702065</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8442300727297521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.59604321836693</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1999197598338166</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9259604321836694</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9255714807510484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.59899307087431</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4818172106985003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8359899307087432</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8308858510427328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.92920353982302</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.465744477766566</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8592920353982301</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8547361307870343</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.64914056349969</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4732882213313133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8064914056349968</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.799912496703476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.74648569624306</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4110795429286857</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8374648569624306</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8353648641909606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.86725663716814</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3418266467905293</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8486725663716814</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8498234205180509</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.36578171091445</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4528493451420218</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8436578171091446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8384653146288364</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.73451327433628</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5565288760621722</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7973451327433628</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8023110519406483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.56637168141593</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4806307221607615</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8256637168141593</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.816542974793743</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1476211870295325</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.956047197640118</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9562270104820515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.95314838363655</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1603973518145115</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9395314838363653</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.938392445842694</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.36578171091445</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1692896320414244</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9436578171091445</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9425801665833398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.42388774989402</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3879339012805334</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8542388774989402</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8514013358274241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.40960561942578</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7286962673068047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7040960561942577</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.700284438447675</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.90021539978719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5726416574170192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.749002153997872</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7474204360872344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.47854220192217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5060149557422846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7947854220192216</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7952810855402367</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>83.24250209776901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5254522778714696</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8324250209776901</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8283049980075777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.91150442477877</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5087315493742305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7991150442477876</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7941975679597905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.05083088954056</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.402880668376262</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8605083088954057</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8545291304977128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.12788172908071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6934931082030137</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.731278817290807</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7305568121273444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.389345928598</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5194670426969726</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.78389345928598</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7814540298716868</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.8731563421829</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6096324036208293</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7687315634218288</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7626636287294245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.99444631873978</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5311567002752174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7799444631873979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7808309210584886</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.84745542781512</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6072757873063286</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7584745542781512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7481849586999408</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.34408602150538</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5457444561024507</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7634408602150538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7602770638157694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.13861711606502</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1681490521354135</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9413861711606503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9417236458480481</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.248133634374</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.159344530342302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.94248133634374</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9421674453722467</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.41974411543353</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2033726564560008</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9241974411543353</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9196009199512469</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.8917378178012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.48547020754844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.808917378178012</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8058318054676282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.42182890855457</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4401879330708955</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8342182890855458</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.831960811050353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.83775811209441</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5970501395990141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.748377581120944</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7416814487099517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.54867256637168</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3555076383209477</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8654867256637168</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8665517483027214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2527405471081389</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9067332925510165</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4300337557331659</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8466372199352475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.90560471976401</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3775684769556392</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8790560471976402</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8746022066150841</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.8276542184621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7231854163420697</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7682765421846209</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7599562866801802</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.84383082898641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3621410865724707</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8684383082898641</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8674731451582423</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.69026548672566</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3781853487482295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8469026548672567</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8431632927729409</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.18879056047197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4317573529512931</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8418879056047197</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8424959565635369</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.50737463126843</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.551644939405378</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8250737463126843</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8228874733079017</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.97987006808017</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4484688356518746</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8297987006808019</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.824695827077359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.34233860154499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1872504946421638</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9434233860154499</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9433458306111154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.92920353982302</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1178938074723798</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.95929203539823</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9597591500542031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.89692817411915</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1363483242603252</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9489692817411916</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9480385638071521</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.09182317032733</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3859976064555991</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8609182317032732</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8586654835464671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.06246593828666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4816259474726394</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8106246593828667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8088440443072422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.4990008564088</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.609853395447135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7449900085640879</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7366945256567714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.41592920353983</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4578011480936159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8141592920353983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8081045599042544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.99115044247787</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3441063128062524</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8699115044247787</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8683689305340987</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.63293800119378</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6321548155896985</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7763293800119377</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7673480845923992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4845283989290086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8338428561919379</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.59882005899705</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6599353730988999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7359882005899705</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7326780326973339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.09161843960588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4683933101594448</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8109161843960588</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8051282012119794</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82.92052699417816</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4226979247604807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8292052699417815</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8281144291353992</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.85250737463126</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5621003824441384</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7985250737463127</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7949191561665505</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>76.40117994100295</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6566478061800203</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7640117994100295</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.765168334666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.79351032448378</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5224184981780127</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7979351032448377</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7907300438910051</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.33437140459692</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2097428604067924</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9333437140459692</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9327073860641537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.199162736027453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9158529606796563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.10079671969481</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2184780461956203</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9210079671969481</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9195734771872746</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82.41210275752097</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4619764637192807</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8241210275752097</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8205383348591149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.2599330444035</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5451180522019665</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.782599330444035</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.776773807301504</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.83179785292261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.75527545089523</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6583179785292261</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6533208145794587</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.49417382503309</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5498395620534817</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7649417382503308</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7615100715756868</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.20070242822169</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5237760769203306</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8120070242822169</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8081104468221956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.50459779063833</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.543151411206054</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8150459779063833</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8084538783174793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.90560471976401</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3953988686068138</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8790560471976401</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8715239502035288</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.34738189776729</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8414229618385434</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6734738189776729</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6638376322886108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>67.14400643604183</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8450990011294681</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6714400643604184</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6630789327984994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>79.94134897360703</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5923935549954573</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7994134897360704</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7809395391893876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.30487287952317</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4839563824314003</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8330487287952317</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8338071056923834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.76747203695534</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6069495534912372</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7976747203695533</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7862516551404619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.18681822507115</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8325386992345253</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6618681822507115</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6564322670573914</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>85.66856114672272</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4126622066289808</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8566856114672273</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.854122341691086</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.41887905604719</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1953076991599422</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.924188790560472</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.922394953335114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.66126869609599</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2158676042842368</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9266126869609599</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9254696774652519</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.04249460058766</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5559171390051778</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7904249460058765</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7844018048972027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -13753,6 +16224,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.9213111429549958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>76.2430470851824</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5981194845711192</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.762430470851824</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7620472197446971</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.88770664106092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7236315215627351</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6888770664106091</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6778959028280234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.23406776875233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5318847929748396</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7823406776875232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.780149202769145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>73.45201948113738</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7001938168580334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7345201948113738</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7287060351980295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>78.26045208003529</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6254667986184359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7826045208003529</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7818918836974936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.58520402425627</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7352869291440584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7958520402425626</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.790096418309279</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.40914713795102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9846292595068613</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6740914713795102</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.654080568755763</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.77581120943952</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6820190367521718</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7377581120943952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7343349527118196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.32152527270998</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6113432763144374</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7832152527270997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7743483393576733</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.77788735196671</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7482359069904002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7377788735196671</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7258503788213284</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.49954584382218</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6686377445119434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7749954584382218</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7741834479047525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.65203851244388</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8645776112874348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6565203851244388</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6498502090876995</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.39302243098989</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5758045228353391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8339302243098988</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8240545604703324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.97899635809998</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2128442916747493</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9197899635809998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9182628438665672</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.12349587799203</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3947169627494683</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8612349587799203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8564610004671556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.83959780505599</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6438261304234685</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7683959780505599</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7621475309326506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.82057803268194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.528868993340681</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7882057803268194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.779549236161172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.28109239699305</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5992984202379982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7428109239699305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7358771747518335</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.34304795024178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5973376270073156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7634304795024178</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7529054344952848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.35988200589971</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5197732045004766</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.823598820058997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8183267254551178</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.64965959913147</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5878875612494692</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8064965959913147</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.798857384031424</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.57312779522314</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4411738473922014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8357312779522313</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8360462202980079</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72.5972543015078</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6702226873487234</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7259725430150781</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7214549834759225</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.36672462564556</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7171742047493657</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7336672462564555</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7279468378245773</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>77.5684045709738</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5891275487529735</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.775684045709738</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7707213168992467</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.48082595870207</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4636137303081341</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8348082595870207</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8300090818502346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.44767688301802</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.018557710573077</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7144767688301802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7010993562333943</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>74.21863510930025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7102601571629444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7421863510930026</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7311340416886737</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.49852507374632</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2988440689902442</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8949852507374632</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8918661037374772</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.29533127449199</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2419707432893726</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9029533127449199</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9019270458478836</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.50682964385506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2668987904558889</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8950682964385506</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.893219635557022</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.86717301476081</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5500672863572579</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.798671730147608</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7927293718871515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.43501241360219</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5974479484682281</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7743501241360219</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7731616794293842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.68956478862273</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6008107421803288</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7368956478862274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7314828569541463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.26424969074127</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5016788821356992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7726424969074127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7717920398232032</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.00901391880552</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4707792666430275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8200901391880553</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8141351235483791</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72.77320738068669</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7887874468889399</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7277320738068669</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7227948802542074</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.04077024887758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4794823106688758</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8304077024887759</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8244070410521394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.11814116039065</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.820676446457704</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6711814116039065</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6661040527718962</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.60822325452642</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8845066802576185</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7060822325452643</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7008857533877769</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>74.93369319803804</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6530733461802204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7493369319803804</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7341193337334266</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.91157362952967</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5598725971455376</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7791157362952967</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7779576743747822</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.30695767264423</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7114372647833079</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7430695767264422</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7464740134279001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.88301801918701</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5660290664061904</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7688301801918701</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7578688058606239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.34651683838095</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3479223028911899</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8734651683838095</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8744441901758198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.1122674071575</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3328116494308536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.881122674071575</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8784777283648435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.72876928001108</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.360730656903858</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8572876928001107</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8569667255022011</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.94406526008009</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5784031071627721</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.779440652600801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7754047932440487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.91336430245937</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7938997251292069</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6491336430245936</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6413799070304514</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67.24876512772602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.758742449680964</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6724876512772602</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6644062590644851</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.10494035415532</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6400939566393693</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7110494035415531</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7041455132123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>77.13950812723293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5722392374804864</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7713950812723294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7717579275085461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.03850379328541</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7961464863309325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7103850379328541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6977774174918464</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.80336335089405</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7542638252178827</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6880336335089404</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6849724753443017</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61.82466976357928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8857001985112826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6182466976357927</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6135655080264887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>62.83402105554546</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8905875621984404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6283402105554546</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6215816066206574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66.23975985951435</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7317764326930046</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6623975985951436</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6608157701295487</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.56116402391024</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7167009544248382</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7056116402391024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6967337957742297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.57396690282788</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9628173517684141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6057396690282788</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6013442284529332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.21563335322971</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7262615511814753</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.672156333532297</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6716460763303322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86.40187198851201</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3371739204972982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8640187198851201</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8622822150807691</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.92326923243282</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4865251177301009</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.799232692324328</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7966590022986795</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.43389648699383</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5682475914344347</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7843389648699384</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7836046165854418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.28377984815324</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7080784240612087</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7028377984815324</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6981781545967342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.21148971876919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5615127369761467</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7821148971876919</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7815204032324735</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.49741779773181</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.631058266821007</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7149741779773181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7111086519218069</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.90438498602929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5536401022536059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7690438498602929</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7669604060914597</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.43913874687497</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4226861275732517</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8443913874687498</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8406358218733354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.90240400003461</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.684311453893315</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7790240400003461</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7663589257898986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.48672566371681</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.437273549294332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8548672566371682</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8512192332812907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.70709089178972</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8382662627225121</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6970709089178972</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6908835751986644</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.13308938658638</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.623650605759273</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7513308938658639</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7469249338281091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.43657817109144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5715803232820084</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7843657817109144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7800695756128289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.10269985034473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4584149207919836</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8210269985034472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8177759204982076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.33923303834808</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7558543990366161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7533923303834809</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7477667831024886</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>74.18896357234925</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.632155739950637</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7418896357234924</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7426697462753677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.96910872931427</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3408057023499472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8896910872931427</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8888882623268385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.09213747523768</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2273732791693571</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9109213747523768</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9088061568881809</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.83391724841911</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2562564353497389</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9083391724841909</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.907533753889308</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.01629195177583</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5329893270149155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8001629195177581</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.796608143320684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.89101981851054</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6519822823504607</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7189101981851055</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7152427067676115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.57574027456985</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5669262816198171</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7557574027456985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7527147373406702</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.90300089101116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5789183033630252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7690300089101116</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7677817238614851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.59621623024421</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4343017976304206</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.825962162302442</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8246777663647956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.93882300019897</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9061323964968324</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6793882300019896</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6694503167767774</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.42125796935959</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9166398130357265</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6742125796935959</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.662717453505515</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65.67375150304068</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9493045714994273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6567375150304068</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6429710596035642</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68.70993693717074</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8169431236262122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6870993693717073</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6809819170743374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66.09702506077042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0192636474967</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6609702506077042</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6464419135784876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.06949887109751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6531040653586387</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7406949887109751</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7362969848783057</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.40840318687877</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7349168511728446</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7140840318687878</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7110503794754903</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>74.58282511094387</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6092730962981781</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7458282511094386</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7378816533706812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.03400548447651</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2592466834622125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9103400548447651</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9088720516848288</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.69597487867541</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3922084299847484</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8469597487867542</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8422425388817144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.54756529035718</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5376769185687105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7854756529035718</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7811938833498863</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.47633630048702</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6684558841309303</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7447633630048701</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7387011391009434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.0370937464857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7726334225386381</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.680370937464857</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6787107522588668</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.301594304449</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9489965145786604</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54301594304449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5210122995457709</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.38656043737402</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8242093866070113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6638656043737402</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6553078291443514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>73.90124482045692</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.623069804906845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7390124482045692</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7384902588850282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>73.4981271464286</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7029213970915105</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.734981271464286</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7298083212025981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.30571198712792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.532662338639299</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8030571198712793</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8010632037878</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.56384570800785</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.077782033880552</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5056384570800786</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5016446795381545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>60.22430989887456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9577177191774051</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6022430989887455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5936120115962269</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.41564373394235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9729527010892829</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6841564373394233</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6683241023521875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.40585991228298</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5902706345543265</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7740585991228298</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7712494710774891</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.87660792913434</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6932811848896867</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7587660792913434</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7479099762534357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>51.52786788813052</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.044741036991278</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5152786788813052</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5014066972290847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.62084447097293</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4968961328268051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7962084447097293</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7948222711927697</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.32448377581122</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2523073384045953</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.903244837758112</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8998536683259279</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.18599641865414</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2457667784610142</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9118599641865414</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9088205087929033</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.77171947854221</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7157472283091273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7077171947854221</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7008024034121729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>59.73892507720656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9518677969773611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5973892507720655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5932422580005728</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>49.2899592557029</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9892520278692245</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.492899592557029</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4742992622534456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.15933528836755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8844245682160059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5915933528836754</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5885103954671129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.62648465817178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9015427976846695</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6162648465817179</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6074857563704588</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.35320374743726</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9552771632870038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6035320374743727</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5938356972099037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.79848441595516</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6648081277807554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7479848441595516</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7444809642440398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45.00506059741001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.198598577578863</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4500506059741001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4238734556649489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.19302935146497</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.061431297659874</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5419302935146498</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5354579098047537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.29734686286214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9193848460912705</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6329734686286214</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6237479350639077</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.60998797567453</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8534739981094995</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6460998797567453</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6445965711252932</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63.41862818882517</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8902065729101499</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6341862818882517</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6324932126950717</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>51.52077440116263</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.026376438140869</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5152077440116264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5052037486366177</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.97063123383421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6144217280050119</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7497063123383421</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7439277796343007</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.77805171325011</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4122048545473566</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8277805171325012</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8273642242941465</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.56182146904385</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3599963676184416</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8656182146904385</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8643995415439385</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.42144828242458</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8455511441650904</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.634214482824246</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6268612474672342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.26580679763666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7802747674907248</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6726580679763666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.669285781637286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66.86701442053997</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7649193858106931</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6686701442053996</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6638549260044094</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.58937361049836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9187789206703505</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6158937361049837</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6086472896079755</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.99576985960086</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9772644480069479</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6099576985960086</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5994971662921676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>66.62479779236845</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8258947640657425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6662479779236844</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6498225263692858</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.55503940345504</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8932105258107186</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6255503940345505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6246419858677073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>55.54009982785318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.085667883356412</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5554009982785318</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.554759474631292</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.57548075675395</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.077353797356288</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5557548075675396</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5467441391487707</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.25709564961635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9482437620560328</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6025709564961634</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5974098030560284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.18231991626226</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8214253410696983</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6618231991626226</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6622729074768302</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.96108962880302</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9210299799839655</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6196108962880301</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6189166667611798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.76656372459971</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8263014707714319</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.647665637245997</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6470482629283028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.8229655965882</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7177810923506817</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7482296559658821</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7433648435408654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.14658431301309</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5871745223800342</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7514658431301309</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7454029944212301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.4128755439061</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7862813666462898</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6841287554390609</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6756276015979985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.57085845609969</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8621068018550673</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6457085845609967</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6404864246227554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>65.20834955319683</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8185898261765638</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6520834955319683</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6485432144022291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60.85502469744548</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8546635476251444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6085502469744548</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6073624612473646</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65.92081246377563</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7747840325037638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6592081246377564</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6544770495192948</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.47572210832273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8802731168766817</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6347572210832274</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6330593073056001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.68586233444925</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8374410000940165</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6568586233444925</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6454747364980061</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>57.75750655282485</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.007785625755787</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5775750655282486</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5738045548713531</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51.90927257156204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.040195902188619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5190927257156204</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5141354423991487</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>59.46167354388879</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9287273099025091</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5946167354388879</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5878887901256917</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.4999870241092</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9749692201614379</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5849998702410921</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5821210469969355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.62563689997317</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8283254543940226</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6362563689997318</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6369259215311909</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.08218929229491</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9125063692529995</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6108218929229492</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6061342427207077</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.4682652964126</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8869923676053683</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6146826529641259</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5993828416967955</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73.17191325184474</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7033435791730881</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7317191325184474</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7300491040048237</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>69.75665879462625</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7097706250846386</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6975665879462625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6903767361755971</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>66.43872351836953</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8747615593175093</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6643872351836954</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6445696213930983</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.95450652687307</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8688753024074766</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6295450652687308</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.623620338059189</v>
       </c>
     </row>
   </sheetData>
@@ -14110,6 +20081,1406 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52.34136973503231</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9867664456367493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5234136973503232</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5131212864825077</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>47.57402745698492</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.008351690570513</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4757402745698492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.45766997967247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53.79475601000009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9463191072146098</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5379475601000009</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5151406561565092</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.45310080537028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.051119331518809</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4845310080537029</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4787227978538187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.44463187397814</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9483571032683056</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5944463187397815</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5797857490295211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>51.01843441552263</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.083571467796961</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5101843441552263</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4963488564467335</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43.5425911988858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.216253991921743</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.435425911988858</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4059487442642441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>43.41646554035935</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.188921256860097</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4341646554035934</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4118038071306904</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46.48725334994248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.132183335224787</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4648725334994247</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4520685737195264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.77616588378792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9825485626856485</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5477616588378792</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5432148828621113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51.31757195131446</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.035985551277796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5131757195131446</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5100320183023398</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47.57575757575758</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.043856323758761</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4757575757575758</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4663787072169195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68.94281092396993</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7438749601443609</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6894281092396992</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6850178361388701</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>63.76127821174923</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7947219292322795</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6376127821174924</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6354447605598057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>59.13848735715707</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9426060825586319</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5913848735715707</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5689782630420008</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>52.77231348598748</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.00702914264467</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5277231348598748</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5146451279252047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.8549035891314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7616600645085175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6685490358913139</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6614470741207189</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.56836996859835</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8617571596056223</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6356836996859834</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6356666535842292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>63.06101263851764</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8588034465909005</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6306101263851763</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6249842625021051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64.50021193954964</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8448970342675844</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6450021193954966</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6410639639857612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.0055104282909</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8558505271871886</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.670055104282909</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6572145934422025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.47241758146697</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9577066307266554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6147241758146696</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6042156625320027</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.53644062664902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.165648663540681</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5253644062664902</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5222417715130425</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>60.07802835664668</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9307614530126254</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6007802835664668</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5976505193583099</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.70268773951332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9190293955306211</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6070268773951332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5985069221604652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.74607911833148</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7762293269236882</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6674607911833148</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6670571306062261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>62.61109525168903</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9057435614367326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6261109525168903</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6218082706455839</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.49675170200433</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8818929309646288</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6449675170200434</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6360296370229748</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73.4502028564261</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6939556663235029</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7345020285642609</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7298193176337771</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73.93524165433956</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6526283065478007</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7393524165433958</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7373491294528284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.41166446076524</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7950788862071931</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6841166446076523</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6789340432852613</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.62870786079465</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8574428702249295</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6462870786079463</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6409325967896993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61.84949696796686</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8832482472062111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6184949696796685</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6129931871601092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.26732065156273</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8011167719960213</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6226732065156273</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6218509816917182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.96799280270591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8781464777886867</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5996799280270591</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5996550455887979</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57.63830136938901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.018463908632596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5763830136938901</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5737446785120459</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.38793588179828</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9023210187753042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6538793588179829</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6486755740432895</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55.81146895734393</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.003923708200455</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5581146895734392</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5563198862254418</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45.54312753570532</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.149347108602524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4554312753570532</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4498269200325167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>56.69642470955631</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.998267442981402</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5669642470955631</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5650752867775156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.34710507876366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.042427796125412</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5534710507876366</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5395853715989484</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.03739651727091</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8577457179625829</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6303739651727092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6282908334094227</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55.60567132933676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9667769292990366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5560567132933676</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.555065852057002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.43632730386942</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9130331536134084</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5943632730386941</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5842470382826482</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.7880864021315</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.684157645702362</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.727880864021315</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7220597667388741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>70.28815128158547</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7194017599026361</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7028815128158549</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6945755516669525</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>65.88188479139093</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9249958315243324</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6588188479139092</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6497810453597765</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.50311277202513</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9162249012208649</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6050311277202514</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.600116467943004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50.45225304717169</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.089867974321047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5045225304717169</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4938689515896947</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.95053590428982</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9492230196793873</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5195053590428983</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4946711657445031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.07761312814125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8476142451167107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6207761312814124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6183916242612604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55.32296992188513</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9963119685649872</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5532296992188513</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5506737777112047</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55.61362987569097</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.087412033975124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5561362987569096</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5331500663735758</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72.9952681251568</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7273169301450253</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7299526812515679</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7258474515587199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41.53253920881669</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.139575521151225</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4153253920881669</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4063647363461954</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.30386941063504</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.1530461003383</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4730386941063504</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4595075644558137</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.7953182986012</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.006145719687144</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.587953182986012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5774459864265745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.37034922447426</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8780842090646426</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6237034922447425</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6197510292899436</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59.8933381776659</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9659500628709793</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.598933381776659</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5874689812281595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45.7261741018521</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.021390693386396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.457261741018521</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4387949079387387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>69.11720689625342</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6990395377079646</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6911720689625342</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6912697411293675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.28386923762316</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3621954631758854</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8528386923762316</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8508290434720918</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.97166065450394</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4089636676013469</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8397166065450394</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8397661495840584</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.16043968085076</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8888091431190777</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6016043968085075</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5925200784739935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
